--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/15/seed3/result_data_RandomForest.xlsx
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.394799999999996</v>
+        <v>-8.608899999999997</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.409899999999997</v>
+        <v>-8.274599999999996</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.6288</v>
+        <v>-12.5447</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.1096</v>
+        <v>-21.2192</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.442500000000004</v>
+        <v>-8.180199999999997</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.53019999999998</v>
+        <v>-20.43709999999998</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.132999999999995</v>
+        <v>-6.171999999999998</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.61600000000004</v>
+        <v>-22.55410000000003</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>5.985799999999997</v>
+        <v>5.7296</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.53770000000003</v>
+        <v>-22.33240000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.3314</v>
+        <v>-14.28849999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
